--- a/xlsx/阿富汗战争 (1979年)_intext.xlsx
+++ b/xlsx/阿富汗战争 (1979年)_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="812">
   <si>
     <t>阿富汗战争 (1979年)</t>
   </si>
@@ -29,13 +29,13 @@
     <t>阿富汗战争 (2001年)</t>
   </si>
   <si>
-    <t>政策_政策_美國_阿富汗战争 (1979年)</t>
+    <t>政策_政策_美国_阿富汗战争 (1979年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%B0</t>
   </si>
   <si>
-    <t>冷戰</t>
+    <t>冷战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -59,9 +59,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿富汗民主共和國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E4%BF%83%E8%BF%9B%E4%BC%9A</t>
   </si>
   <si>
@@ -77,7 +74,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
@@ -95,7 +92,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯</t>
+    <t>沙乌地阿拉伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%BE%B7</t>
@@ -155,7 +152,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AC%9D%E7%88%BE%E8%93%8B%C2%B7%E7%B4%A2%E7%A7%91%E6%B4%9B%E5%A4%AB</t>
   </si>
   <si>
-    <t>謝爾蓋·索科洛夫</t>
+    <t>谢尔盖·索科洛夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E7%B1%B3%E7%89%B9%E9%87%8C%C2%B7%E4%BA%9A%E4%BD%90%E5%A4%AB</t>
@@ -173,7 +170,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AE%91%E9%87%8C%E6%96%AF%C2%B7%E6%A0%BC%E7%BE%85%E8%8E%AB%E5%A4%AB</t>
   </si>
   <si>
-    <t>鮑里斯·格羅莫夫</t>
+    <t>鲍里斯·格罗莫夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B8%83%E6%8B%89%E5%85%8B%C2%B7%E5%8D%A1%E5%B0%94%E8%BF%88%E5%8B%92</t>
@@ -203,13 +200,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%8D%9C%E6%9D%9C%E6%8B%89%C2%B7%E5%84%AA%E7%B4%A0%E7%A6%8F%C2%B7%E9%98%BF%E6%89%8E%E5%A7%86</t>
   </si>
   <si>
-    <t>阿卜杜拉·優素福·阿扎姆</t>
+    <t>阿卜杜拉·优素福·阿扎姆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E6%A2%85%E7%88%BE%E6%B1%97</t>
   </si>
   <si>
-    <t>伊斯梅爾汗</t>
+    <t>伊斯梅尔汗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%8B%92%E5%8D%9C%E4%B8%81%C2%B7%E5%B8%8C%E5%85%8B%E9%A9%AC%E8%92%82%E4%BA%9A%E5%B0%94</t>
@@ -227,19 +224,16 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿富汗共和國</t>
+    <t>阿富汗共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97%E4%BA%BA%E6%B0%91%E6%B0%91%E4%B8%BB%E9%BB%A8</t>
   </si>
   <si>
-    <t>阿富汗人民民主黨</t>
+    <t>阿富汗人民民主党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E6%9C%88%E9%9D%A9%E5%91%BD_(%E9%98%BF%E5%AF%8C%E6%B1%97)</t>
@@ -263,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%A5%9E%E8%AB%96</t>
   </si>
   <si>
-    <t>無神論</t>
+    <t>无神论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%8F%B2%E4%BD%90%E6%8B%89%C2%B7%E9%98%BF%E6%98%8E</t>
@@ -275,13 +269,13 @@
     <t>https://zh.wikipedia.org/wiki/333%E9%A2%A8%E6%9A%B4%E8%A1%8C%E5%8B%95</t>
   </si>
   <si>
-    <t>333風暴行動</t>
+    <t>333风暴行动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E9%99%8D%E8%BB%8D</t>
   </si>
   <si>
-    <t>空降軍</t>
+    <t>空降军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E5%9B%BD%E5%AE%B6%E5%AE%89%E5%85%A8%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -293,31 +287,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E7%A8%AE%E9%83%A8%E9%9A%8A</t>
   </si>
   <si>
-    <t>特種部隊</t>
+    <t>特种部队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E6%B3%95%E5%B0%8F%E7%B5%84</t>
   </si>
   <si>
-    <t>阿爾法小組</t>
+    <t>阿尔法小组</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E8%8C%B2%E5%88%A5%E5%85%8B%E8%98%87%E7%B6%AD%E5%9F%83%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>烏茲別克蘇維埃社會主義共和國</t>
+    <t>乌兹别克苏维埃社会主义共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E9%AB%98%E9%A0%98%E5%B0%8E%E4%BA%BA</t>
   </si>
   <si>
-    <t>最高領導人</t>
+    <t>最高领导人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>國家元首</t>
+    <t>国家元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%A8%E9%95%BF%E4%BC%9A%E8%AE%AE%E4%B8%BB%E5%B8%AD</t>
@@ -335,13 +329,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E6%93%8A%E6%88%B0</t>
   </si>
   <si>
-    <t>游擊戰</t>
+    <t>游击战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%88%B0%E8%80%85</t>
   </si>
   <si>
-    <t>聖戰者</t>
+    <t>圣战者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%B0%94%E6%A2%85%E5%85%B9</t>
@@ -365,13 +359,13 @@
     <t>https://zh.wikipedia.org/wiki/Su-25%E6%94%BB%E6%93%8A%E6%A9%9F</t>
   </si>
   <si>
-    <t>Su-25攻擊機</t>
+    <t>Su-25攻击机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/BMP-2%E6%AD%A5%E5%85%B5%E6%88%B0%E8%BB%8A</t>
   </si>
   <si>
-    <t>BMP-2步兵戰車</t>
+    <t>BMP-2步兵战车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%93%E7%BA%B3%E5%B0%94%E7%9C%81</t>
@@ -395,9 +389,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E7%BD%95%E9%BB%98%E5%BE%B7%C2%B7%E7%B4%8D%E5%90%89%E5%B8%83%E6%8B%89</t>
   </si>
   <si>
-    <t>穆罕默德·納吉布拉</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%83%A8%E8%83%9C</t>
   </si>
   <si>
@@ -425,7 +416,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF%E9%99%B8%E8%BB%8D</t>
   </si>
   <si>
-    <t>蘇聯陸軍</t>
+    <t>苏联陆军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E6%8D%B7%E5%B8%83%E6%96%AF%E5%85%8B</t>
@@ -449,13 +440,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E6%97%97%E5%8B%B3%E7%AB%A0</t>
   </si>
   <si>
-    <t>紅旗勳章</t>
+    <t>红旗勳章</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E4%BB%80%E5%8D%A1</t>
   </si>
   <si>
-    <t>庫什卡</t>
+    <t>库什卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/T-62%E5%9D%A6%E5%85%8B</t>
@@ -491,7 +482,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%9B%BC</t>
   </si>
   <si>
-    <t>烏曼</t>
+    <t>乌曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E6%B2%99</t>
@@ -539,7 +530,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E5%BA%B7%E6%96%AF%E5%9D%A6%E4%B8%81%E8%AB%BE%E5%A4%AB</t>
   </si>
   <si>
-    <t>舊康斯坦丁諾夫</t>
+    <t>旧康斯坦丁诺夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%96%AF%E7%A7%91%E5%A4%AB</t>
@@ -587,13 +578,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>中央情報局</t>
+    <t>中央情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%86%9B%E6%83%85%E6%8A%A5%E5%B1%80</t>
@@ -605,19 +596,19 @@
     <t>https://zh.wikipedia.org/wiki/FIM-92%E5%88%BA%E9%87%9D%E4%BE%BF%E6%94%9C%E5%BC%8F%E9%98%B2%E7%A9%BA%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>FIM-92刺針便攜式防空飛彈</t>
+    <t>FIM-92刺针便携式防空飞弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF%E7%A9%BA%E8%BB%8D</t>
   </si>
   <si>
-    <t>蘇聯空軍</t>
+    <t>苏联空军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E6%93%8A%E9%9A%8A</t>
   </si>
   <si>
-    <t>游擊隊</t>
+    <t>游击队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E6%96%AF%E6%9E%97</t>
@@ -629,37 +620,34 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E8%96%A9%E7%91%AA%C2%B7%E8%B3%93%C2%B7%E6%8B%89%E7%99%BB</t>
   </si>
   <si>
-    <t>奧薩瑪·賓·拉登</t>
+    <t>奥萨玛·宾·拉登</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E9%81%94%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>蓋達組織</t>
+    <t>盖达组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>機場</t>
+    <t>机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%80%E5%B8%83%E7%88%BE</t>
   </si>
   <si>
-    <t>喀布爾</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A3%9D%E7%94%B2%E9%81%8B%E5%85%B5%E8%BB%8A</t>
   </si>
   <si>
-    <t>裝甲運兵車</t>
+    <t>装甲运兵车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E6%98%8E%E7%94%9F%E6%A9%9F</t>
   </si>
   <si>
-    <t>黎明生機</t>
+    <t>黎明生机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B9%9D%E7%AA%81%E5%87%BB%E9%98%9F</t>
@@ -671,31 +659,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E4%B8%96%E5%A5%87%E6%89%8D</t>
   </si>
   <si>
-    <t>蓋世奇才</t>
+    <t>盖世奇才</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E6%88%B0%E7%8B%82%E6%83%B3%E6%9B%B2</t>
   </si>
   <si>
-    <t>越戰狂想曲</t>
+    <t>越战狂想曲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E5%8B%9D%E6%99%82%E5%88%BB%EF%BC%9A%E9%BB%91%E8%89%B2%E8%A1%8C%E5%8B%952</t>
   </si>
   <si>
-    <t>決勝時刻：黑色行動2</t>
+    <t>决胜时刻：黑色行动2</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BD%9B%E9%BE%8D%E8%AB%9C%E5%BD%B1V_%E5%B9%BB%E7%97%9B</t>
   </si>
   <si>
-    <t>潛龍諜影V 幻痛</t>
+    <t>潜龙谍影V 幻痛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E4%BB%A3_(%E9%9B%9C%E8%AA%8C)</t>
   </si>
   <si>
-    <t>時代 (雜誌)</t>
+    <t>时代 (杂志)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Cold_War</t>
@@ -707,9 +695,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%98</t>
   </si>
   <si>
-    <t>冷战</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%85%AC%E7%BA%A6%E7%BB%84%E7%BB%87</t>
   </si>
   <si>
@@ -719,19 +704,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E7%B6%93%E6%BF%9F%E5%85%B1%E5%90%8C%E9%AB%94</t>
   </si>
   <si>
-    <t>歐洲經濟共同體</t>
+    <t>欧洲经济共同体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%AE%89%E5%85%A8%E4%BF%9D%E9%9A%9C%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>太平洋安全保障條約</t>
+    <t>太平洋安全保障条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%97%E4%BA%9E%E6%A2%9D%E7%B4%84%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>東南亞條約組織</t>
+    <t>东南亚条约组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%8D%97%E4%BA%9A%E5%9B%BD%E5%AE%B6%E8%81%94%E7%9B%9F</t>
@@ -767,7 +752,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E5%9C%8B%E5%AE%B6%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>阿拉伯國家聯盟</t>
+    <t>阿拉伯国家联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%89%E5%8F%96%E8%BF%9B%E6%AD%A5%E8%81%94%E7%9B%9F</t>
@@ -779,13 +764,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%83%A8%E5%85%AC%E7%B4%84%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>中部公約組織</t>
+    <t>中部公约组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%87%AA%E7%94%B1%E6%B0%91%E4%B8%BB%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>世界自由民主聯盟</t>
+    <t>世界自由民主联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%B0%94%E5%A1%94%E4%BC%9A%E8%AE%AE</t>
@@ -809,7 +794,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E7%9B%9F%E5%9C%8B%E8%BB%8D%E4%BA%8B%E4%BD%94%E9%A0%98%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>同盟國軍事佔領德國</t>
+    <t>同盟国军事佔领德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%BB%E7%BA%B3%E7%B2%B9%E5%8C%96</t>
@@ -851,13 +836,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E5%BE%B7%E6%94%BF%E7%AD%96%E7%9A%84%E9%87%8D%E8%BF%B0</t>
   </si>
   <si>
-    <t>對德政策的重述</t>
+    <t>对德政策的重述</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E5%8D%B0%E5%BA%A6%E6%94%AF%E9%82%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>第一次印度支那戰爭</t>
+    <t>第一次印度支那战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%B0%BC%E8%A5%BF%E4%BA%9A%E7%8B%AC%E7%AB%8B%E9%9D%A9%E5%91%BD</t>
@@ -875,7 +860,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E9%97%9C%E4%BF%82%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>亞洲關係會議</t>
+    <t>亚洲关系会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%AD%87%E5%B0%94%E8%AE%A1%E5%88%92</t>
@@ -905,13 +890,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97%E5%B0%81%E9%8E%96</t>
   </si>
   <si>
-    <t>柏林封鎖</t>
+    <t>柏林封锁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E7%9B%9F%E5%9C%8B%E7%9A%84%E8%83%8C%E5%8F%9B</t>
   </si>
   <si>
-    <t>西方盟國的背叛</t>
+    <t>西方盟国的背叛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%93%81%E5%B9%95</t>
@@ -923,7 +908,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>東方集團</t>
+    <t>东方集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E5%9B%BD%E5%85%B1%E5%86%85%E6%88%98</t>
@@ -935,19 +920,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E7%9C%81%E6%88%92%E5%9A%B4%E4%BB%A4</t>
   </si>
   <si>
-    <t>臺灣省戒嚴令</t>
+    <t>台湾省戒严令</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E4%BA%9E%E7%B7%8A%E6%80%A5%E7%8B%80%E6%85%8B</t>
   </si>
   <si>
-    <t>馬來亞緊急狀態</t>
+    <t>马来亚紧急状态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%B4%9B%E6%89%98%E5%A4%AB%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>莫洛托夫計劃</t>
+    <t>莫洛托夫计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%B9%E5%B9%95</t>
@@ -959,7 +944,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%A3%AE%E5%A0%A1%E5%A4%AB%E5%A9%A6</t>
   </si>
   <si>
-    <t>羅森堡夫婦</t>
+    <t>罗森堡夫妇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%88%98%E4%BA%89</t>
@@ -971,7 +956,7 @@
     <t>https://zh.wikipedia.org/wiki/1953%E5%B9%B4%E4%BC%8A%E6%9C%97%E6%94%BF%E8%AE%8A</t>
   </si>
   <si>
-    <t>1953年伊朗政變</t>
+    <t>1953年伊朗政变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%BE%B7%E5%85%AD%E4%B8%80%E4%B8%83%E4%BA%8B%E4%BB%B6</t>
@@ -995,7 +980,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E6%B5%B7%E5%B3%BD%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>臺灣海峽危機</t>
+    <t>台湾海峡危机</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Geneva_Summit_(1955)</t>
@@ -1013,7 +998,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%8C%B2%E5%8D%97%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>波茲南事件</t>
+    <t>波兹南事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9%E5%8D%81%E6%9C%88%E4%BA%8B%E4%BB%B6</t>
@@ -1061,7 +1046,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E9%9A%86%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>萬隆會議</t>
+    <t>万隆会议</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Bricker_Amendment</t>
@@ -1097,7 +1082,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%97%A5%E5%AE%89%E4%BF%9D%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>美日安保條約</t>
+    <t>美日安保条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E4%B8%80%E4%B9%9D%E9%9D%A9%E5%91%BD</t>
@@ -1109,13 +1094,13 @@
     <t>https://zh.wikipedia.org/wiki/1960%E5%B9%B4U-2%E6%93%8A%E5%A2%9C%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>1960年U-2擊墜事件</t>
+    <t>1960年U-2击坠事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E4%B8%80%E8%99%9F</t>
   </si>
   <si>
-    <t>東方一號</t>
+    <t>东方一号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%AA%E6%B9%BE%E4%BA%8B%E4%BB%B6</t>
@@ -1127,13 +1112,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%9E%97%E5%9C%8D%E7%89%86</t>
   </si>
   <si>
-    <t>柏林圍牆</t>
+    <t>柏林围墙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E6%AE%96%E6%B0%91%E5%9C%B0%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>葡萄牙殖民地戰爭</t>
+    <t>葡萄牙殖民地战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4%E5%AF%BC%E5%BC%B9%E5%8D%B1%E6%9C%BA</t>
@@ -1145,13 +1130,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%83%A8%E5%88%86%E7%A6%81%E6%AD%A2%E6%A0%B8%E8%A9%A6%E9%A9%97%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>部分禁止核試驗條約</t>
+    <t>部分禁止核试验条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BD%94%E9%A0%98%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9C%8B_(1965%E5%B9%B4%E8%87%B31966%E5%B9%B4)</t>
   </si>
   <si>
-    <t>美國佔領多明尼加共和國 (1965年至1966年)</t>
+    <t>美国佔领多明尼加共和国 (1965年至1966年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%88%98%E4%BA%89</t>
@@ -1169,7 +1154,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%9D%9E%E7%A8%AE%E6%97%8F%E9%9A%94%E9%9B%A2</t>
   </si>
   <si>
-    <t>南非種族隔離</t>
+    <t>南非种族隔离</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/South_African_Border_War</t>
@@ -1193,7 +1178,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%AE%E5%9C%8B%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>寮國內戰</t>
+    <t>寮国内战</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Argentine_Revolution</t>
@@ -1205,13 +1190,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E8%BB%8D%E6%94%BF%E5%BA%9C%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>希臘軍政府時期</t>
+    <t>希腊军政府时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%9F%8B%E5%B8%83%E6%B4%9B%E8%99%9F%E9%80%9A%E7%94%A8%E7%92%B0%E5%A2%83%E7%A0%94%E7%A9%B6%E8%89%A6</t>
   </si>
   <si>
-    <t>普韋布洛號通用環境研究艦</t>
+    <t>普韦布洛号通用环境研究舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E6%AC%A1%E4%B8%AD%E4%B8%9C%E6%88%98%E4%BA%89</t>
@@ -1235,7 +1220,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%96%87%E5%8C%96%E5%BE%A9%E8%88%88%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>中華文化復興運動</t>
+    <t>中华文化复兴运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%B0%E8%BE%B9%E5%A2%83%E6%88%98%E4%BA%89</t>
@@ -1295,7 +1280,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%B3%A2%E7%BE%8511%E8%99%9F</t>
   </si>
   <si>
-    <t>阿波羅11號</t>
+    <t>阿波罗11号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BC%93%E5%92%8C%E6%94%BF%E7%AD%96</t>
@@ -1325,7 +1310,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E5%9F%94%E5%AF%A8%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>柬埔寨內戰</t>
+    <t>柬埔寨内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E8%89%B2%E4%B9%9D%E6%9C%88</t>
@@ -1355,7 +1340,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%832758%E8%99%9F%E6%B1%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>聯合國大會2758號決議</t>
+    <t>联合国大会2758号决议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1972%E5%B9%B4%E5%B0%BC%E5%85%8B%E6%9D%BE%E8%AE%BF%E5%8D%8E</t>
@@ -1367,13 +1352,13 @@
     <t>https://zh.wikipedia.org/wiki/1973%E5%B9%B4%E6%99%BA%E5%88%A9%E6%94%BF%E8%AE%8A</t>
   </si>
   <si>
-    <t>1973年智利政變</t>
+    <t>1973年智利政变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%96%E7%BD%AA%E6%97%A5%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>贖罪日戰爭</t>
+    <t>赎罪日战争</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/1973_Thai_popular_uprising</t>
@@ -1403,7 +1388,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E8%A5%BF%E4%BA%9E%E5%8F%A2%E6%9E%97%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>羅德西亞叢林戰爭</t>
+    <t>罗德西亚丛林战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%93%A5%E6%8B%89%E5%86%85%E6%88%98</t>
@@ -1415,7 +1400,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E4%B8%89%E6%AF%94%E5%85%8B%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>莫三比克內戰</t>
+    <t>莫三比克内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%BF%E9%97%A8%E5%BA%97%E4%BA%8B%E4%BB%B6</t>
@@ -1427,25 +1412,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%8A%A0%E7%99%BB%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>歐加登戰爭</t>
+    <t>欧加登战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>衣索比亞內戰</t>
+    <t>衣索比亚内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B7%B4%E5%AB%A9%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>黎巴嫩內戰</t>
+    <t>黎巴嫩内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E8%B6%8A%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>柬越戰爭</t>
+    <t>柬越战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1979%E5%B9%B4%E4%B8%AD%E8%B6%8A%E6%88%98%E4%BA%89</t>
@@ -1463,19 +1448,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E4%BC%8A%E6%96%AF%E8%98%AD%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>伊朗伊斯蘭革命</t>
+    <t>伊朗伊斯兰革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%80%E9%B7%B9%E8%A1%8C%E5%8B%95</t>
   </si>
   <si>
-    <t>兀鷹行動</t>
+    <t>兀鹰行动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AA%AF%E9%AB%92%E6%88%B0%E7%88%AD_(%E9%98%BF%E6%A0%B9%E5%BB%B7)</t>
   </si>
   <si>
-    <t>骯髒戰爭 (阿根廷)</t>
+    <t>肮脏战争 (阿根廷)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E5%9B%BD%E8%A7%A3%E6%94%BE%E6%88%98%E4%BA%89</t>
@@ -1493,13 +1478,13 @@
     <t>https://zh.wikipedia.org/wiki/1978%E5%B9%B4%E5%8D%97%E9%BB%8E%E5%B7%B4%E5%AB%A9%E8%A1%9D%E7%AA%81</t>
   </si>
   <si>
-    <t>1978年南黎巴嫩衝突</t>
+    <t>1978年南黎巴嫩冲突</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%A5%E6%9C%9B%C2%B7%E4%BF%9D%E7%A5%BF%E4%BA%8C%E4%B8%96</t>
   </si>
   <si>
-    <t>若望·保祿二世</t>
+    <t>若望·保禄二世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E6%8A%B5%E5%88%B61980%E5%B9%B4%E5%A4%8F%E5%AD%A3%E5%A5%A5%E8%BF%90%E4%BC%9A</t>
@@ -1511,7 +1496,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E8%98%AD%E7%BE%A4%E5%B3%B6%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>福克蘭群島戰爭</t>
+    <t>福克兰群岛战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%94%E6%AC%A1%E4%B8%AD%E4%B8%9C%E6%88%98%E4%BA%89</t>
@@ -1541,7 +1526,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%98%E7%B5%90%E5%B7%A5%E8%81%AF</t>
   </si>
   <si>
-    <t>團結工聯</t>
+    <t>团结工联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%A4%E4%BC%8A%E6%88%98%E4%BA%89</t>
@@ -1559,13 +1544,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%93%E8%88%AA%E7%A9%BA007%E8%99%9F%E7%8F%AD%E6%A9%9F%E7%A9%BA%E9%9B%A3</t>
   </si>
   <si>
-    <t>大韓航空007號班機空難</t>
+    <t>大韩航空007号班机空难</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1983%E5%B9%B4%E5%84%AA%E7%A7%80%E5%B0%84%E6%89%8B%E6%BC%94%E7%BF%92</t>
   </si>
   <si>
-    <t>1983年優秀射手演習</t>
+    <t>1983年优秀射手演习</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E7%90%83%E5%A4%A7%E6%88%98%E8%AE%A1%E5%88%92</t>
@@ -1577,13 +1562,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A5%E4%BE%B5%E6%A0%BC%E6%9E%97%E7%B4%8D%E9%81%94</t>
   </si>
   <si>
-    <t>入侵格林納達</t>
+    <t>入侵格林纳达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%A9%E6%96%B0%E9%96%8B%E6%94%BE</t>
   </si>
   <si>
-    <t>革新開放</t>
+    <t>革新开放</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E5%8A%9B%E9%87%8F%E9%9D%A9%E5%91%BD_(1986%E5%B9%B4)</t>
@@ -1601,19 +1586,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E5%A4%A7%E8%B5%B7%E7%BE%A9</t>
   </si>
   <si>
-    <t>第一次巴勒斯坦大起義</t>
+    <t>第一次巴勒斯坦大起义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E8%88%AA%E7%A9%BA655%E8%99%9F%E7%8F%AD%E6%A9%9F%E7%A9%BA%E9%9B%A3</t>
   </si>
   <si>
-    <t>伊朗航空655號班機空難</t>
+    <t>伊朗航空655号班机空难</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/8888%E6%B0%91%E4%B8%BB%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>8888民主運動</t>
+    <t>8888民主运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1988%E5%B9%B4%E6%99%BA%E5%88%A9%E5%85%AC%E6%8A%95</t>
@@ -1643,19 +1628,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%BE%85%E7%9A%84%E6%B5%B7%E4%B9%8B%E8%B7%AF</t>
   </si>
   <si>
-    <t>波羅的海之路</t>
+    <t>波罗的海之路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E9%B5%9D%E7%B5%A8%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>天鵝絨革命</t>
+    <t>天鹅绒革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1989%E5%B9%B4%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>1989年羅馬尼亞革命</t>
+    <t>1989年罗马尼亚革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%80%9D%E7%BB%B4_(%E8%8B%8F%E8%81%94)</t>
@@ -1673,13 +1658,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E6%94%BF%E7%AD%96</t>
   </si>
   <si>
-    <t>開放政策</t>
+    <t>开放政策</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E9%B5%9D%E7%B5%A8%E5%88%86%E9%9B%A2</t>
   </si>
   <si>
-    <t>天鵝絨分離</t>
+    <t>天鹅绒分离</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1990%E5%B9%B4%E8%92%99%E5%8F%A4%E6%B0%91%E4%B8%BB%E9%9D%A9%E5%91%BD</t>
@@ -1691,13 +1676,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9F%E9%96%80%E7%B5%B1%E4%B8%80</t>
   </si>
   <si>
-    <t>也門統一</t>
+    <t>也门统一</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB%E8%A7%A3%E9%AB%94</t>
   </si>
   <si>
-    <t>南斯拉夫解體</t>
+    <t>南斯拉夫解体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B9%BE%E6%88%98%E4%BA%89</t>
@@ -1709,7 +1694,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E5%BE%B7%E7%B5%B1%E4%B8%80</t>
   </si>
   <si>
-    <t>兩德統一</t>
+    <t>两德统一</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E8%A7%A3%E4%BD%93</t>
@@ -1721,25 +1706,22 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
   </si>
   <si>
-    <t>中央情报局</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E8%AA%BF%E6%9F%A5%E5%B1%80</t>
   </si>
   <si>
-    <t>聯邦調查局</t>
+    <t>联邦调查局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80</t>
   </si>
   <si>
-    <t>美國國家安全局</t>
+    <t>美国国家安全局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E5%AF%86%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>秘密情報局</t>
+    <t>秘密情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%A0%BC%E5%8B%83</t>
@@ -1757,7 +1739,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97%E6%83%85%E5%A0%B1%E5%8F%8A%E7%89%B9%E6%AE%8A%E4%BD%BF%E5%91%BD%E5%B1%80</t>
   </si>
   <si>
-    <t>以色列情報及特殊使命局</t>
+    <t>以色列情报及特殊使命局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%B9%E5%A4%96%E6%83%85%E6%8A%A5%E5%92%8C%E5%8F%8D%E9%97%B4%E8%B0%8D%E5%B1%80</t>
@@ -1775,13 +1757,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E8%BB%8D%E5%82%99%E7%AB%B6%E8%B3%BD</t>
   </si>
   <si>
-    <t>核軍備競賽</t>
+    <t>核军备竞赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E7%AB%B6%E8%B3%BD</t>
   </si>
   <si>
-    <t>太空競賽</t>
+    <t>太空竞赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%B4%E5%A0%B5%E6%94%BF%E7%AD%96</t>
@@ -1799,7 +1781,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E8%AB%BE%E9%AA%A8%E7%89%8C%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>多米諾骨牌理論</t>
+    <t>多米诺骨牌理论</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Kennedy_Doctrine</t>
@@ -1829,7 +1811,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E6%A3%AE%E4%B8%BB%E7%BE%A9_(%E5%A4%96%E4%BA%A4)</t>
   </si>
   <si>
-    <t>詹森主義 (外交)</t>
+    <t>詹森主义 (外交)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%83%E5%88%97%E6%97%A5%E6%B6%85%E5%A4%AB%E4%B8%BB%E4%B9%89</t>
@@ -1841,19 +1823,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%85%8B%E6%A3%AE%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>尼克森主義</t>
+    <t>尼克森主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%B8%83%E5%88%A9%E5%B8%8C%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>烏布利希主義</t>
+    <t>乌布利希主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%89%B9%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>卡特主義</t>
+    <t>卡特主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E6%A0%B9%E4%B8%BB%E4%B9%89</t>
@@ -1907,25 +1889,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8F%A4%E5%85%B8%E7%B6%93%E6%BF%9F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>新古典經濟學派</t>
+    <t>新古典经济学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5%E7%B6%93%E6%BF%9F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>芝加哥經濟學派</t>
+    <t>芝加哥经济学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E6%A0%B9%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>雷根經濟學</t>
+    <t>雷根经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%B5%A6%E9%9D%A2%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>供給面學派</t>
+    <t>供给面学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%92%92%E5%88%87%E5%B0%94%E4%B8%BB%E4%B9%89</t>
@@ -1937,13 +1919,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E6%B0%91%E4%B8%BB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>基督教民主主義</t>
+    <t>基督教民主主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%BF%9D%E5%AE%88%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>新保守主義</t>
+    <t>新保守主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E4%BA%A7%E4%B8%BB%E4%B9%89</t>
@@ -1997,7 +1979,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E9%AD%AF%E6%9B%89%E5%A4%AB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>赫魯曉夫主義</t>
+    <t>赫鲁晓夫主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%93%81%E6%89%98%E4%B8%BB%E4%B9%89</t>
@@ -2021,7 +2003,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E7%93%A6%E6%8B%89%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>格瓦拉主義</t>
+    <t>格瓦拉主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E6%8B%89%E4%BB%80%E5%85%B1%E4%BA%A7%E4%B8%BB%E4%B9%89</t>
@@ -2051,13 +2033,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8C%AB%E5%AE%89%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>錫安主義</t>
+    <t>锡安主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E6%B0%91%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>三民主義</t>
+    <t>三民主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E4%B8%BB%E4%B9%89</t>
@@ -2075,7 +2057,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E6%94%BE%E7%A5%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>解放神學</t>
+    <t>解放神学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Active_measures</t>
@@ -2123,13 +2105,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>台灣問題</t>
+    <t>台湾问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E5%8D%8A%E5%B3%B6%E5%8D%97%E5%8C%97%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>朝鮮半島南北關係</t>
+    <t>朝鲜半岛南北关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A2%E8%89%B2%E6%81%90%E6%85%8C</t>
@@ -2141,13 +2123,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AB%E6%97%A5%E4%B9%8B%E9%90%98</t>
   </si>
   <si>
-    <t>末日之鐘</t>
+    <t>末日之钟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A1%91%E5%9C%B0%E8%AB%BE%E6%B0%91%E6%97%8F%E8%A7%A3%E6%94%BE%E9%99%A3%E7%B7%9A</t>
   </si>
   <si>
-    <t>桑地諾民族解放陣線</t>
+    <t>桑地诺民族解放阵线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%9C%E6%88%98%E4%BA%89</t>
@@ -2159,7 +2141,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%8A%E7%B7%A3%E6%94%BF%E7%AD%96</t>
   </si>
   <si>
-    <t>邊緣政策</t>
+    <t>边缘政策</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/NATO%E2%80%93Russia_relations</t>
@@ -2177,13 +2159,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%98%87%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>美蘇關係</t>
+    <t>美苏关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%98%87%E9%A6%96%E8%85%A6%E6%9C%83%E8%AD%B0%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美蘇首腦會議列表</t>
+    <t>美苏首脑会议列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_conflicts_related_to_the_Cold_War</t>
@@ -2195,7 +2177,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E8%A1%9D%E7%AA%81</t>
   </si>
   <si>
-    <t>軍事衝突</t>
+    <t>军事冲突</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%9B%BD%E5%86%85%E6%88%98</t>
@@ -2207,13 +2189,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%87%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>波蘇戰爭</t>
+    <t>波苏战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%9D%B1%E8%B7%AF%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>中東路事件</t>
+    <t>中东路事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E5%85%A5%E4%BE%B5%E6%96%B0%E7%96%86</t>
@@ -2231,7 +2213,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%97%A5%E5%9C%8B%E7%95%8C%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>蘇日國界戰爭</t>
+    <t>苏日国界战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E5%85%A5%E4%BE%B5%E6%B3%A2%E5%85%B0</t>
@@ -2243,7 +2225,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%AC%E5%AD%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>冬季戰爭</t>
+    <t>冬季战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E5%BE%B7%E6%88%98%E4%BA%89</t>
@@ -2261,15 +2243,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%97%A5%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>蘇日戰爭</t>
+    <t>苏日战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>朝鮮戰爭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%B6%8A%E6%88%98%E4%BA%89</t>
   </si>
   <si>
@@ -2285,13 +2264,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>越南戰爭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%B4%84%E5%85%A5%E4%BE%B5%E6%8D%B7%E5%85%8B%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B</t>
   </si>
   <si>
-    <t>華約入侵捷克斯洛伐克</t>
+    <t>华约入侵捷克斯洛伐克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8C%E9%83%BD%E6%88%98%E5%BD%B9</t>
@@ -2303,7 +2279,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%B0%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>中印戰爭</t>
+    <t>中印战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1967%E5%B9%B4%E4%B8%AD%E5%8D%B0%E8%BE%B9%E5%A2%83%E5%86%B2%E7%AA%81</t>
@@ -2393,7 +2369,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%9D%A6%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>烏坦戰爭</t>
+    <t>乌坦战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%97%A8%E6%88%98%E5%BD%B9</t>
@@ -2411,25 +2387,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%93%94%E5%B3%B6%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>大擔島戰役</t>
+    <t>大担岛战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%97%A5%E5%B3%B6%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>南日島戰役</t>
+    <t>南日岛战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%B1%B1%E5%B3%B6%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>東山島戰役</t>
+    <t>东山岛战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E4%B8%89%E7%A0%B2%E6%88%B0</t>
   </si>
   <si>
-    <t>九三砲戰</t>
+    <t>九三砲战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E6%B1%9F%E5%B1%B1%E5%B2%9B%E6%88%98%E5%BD%B9</t>
@@ -2447,25 +2423,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E4%BA%8C%E6%B5%B7%E6%88%B0</t>
   </si>
   <si>
-    <t>九二海戰</t>
+    <t>九二海战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%BC%95%E6%B5%B7%E6%88%B0</t>
   </si>
   <si>
-    <t>東引海戰</t>
+    <t>东引海战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%9D%B5%E6%B5%B7%E6%88%B0</t>
   </si>
   <si>
-    <t>烏坵海戰</t>
+    <t>乌坵海战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E6%B5%B7%E5%B3%BD%E9%A3%9B%E5%BD%88%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>台灣海峽飛彈危機</t>
+    <t>台湾海峡飞弹危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%EF%BC%8D%E9%98%BF%E5%AF%8C%E6%B1%97%E6%88%98%E4%BA%89</t>
@@ -3048,7 +3024,7 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G8" t="n">
         <v>3</v>
@@ -3074,10 +3050,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
         <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -3103,10 +3079,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
         <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
       </c>
       <c r="G10" t="n">
         <v>9</v>
@@ -3132,10 +3108,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
         <v>19</v>
-      </c>
-      <c r="F11" t="s">
-        <v>20</v>
       </c>
       <c r="G11" t="n">
         <v>6</v>
@@ -3161,10 +3137,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
         <v>21</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -3190,10 +3166,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
         <v>23</v>
-      </c>
-      <c r="F13" t="s">
-        <v>24</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
@@ -3219,10 +3195,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
         <v>25</v>
-      </c>
-      <c r="F14" t="s">
-        <v>26</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -3248,10 +3224,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
         <v>27</v>
-      </c>
-      <c r="F15" t="s">
-        <v>28</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -3277,10 +3253,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
         <v>29</v>
-      </c>
-      <c r="F16" t="s">
-        <v>30</v>
       </c>
       <c r="G16" t="n">
         <v>5</v>
@@ -3306,10 +3282,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
         <v>31</v>
-      </c>
-      <c r="F17" t="s">
-        <v>32</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -3335,10 +3311,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" t="s">
         <v>33</v>
-      </c>
-      <c r="F18" t="s">
-        <v>34</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -3364,10 +3340,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
         <v>35</v>
-      </c>
-      <c r="F19" t="s">
-        <v>36</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -3393,10 +3369,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
         <v>37</v>
-      </c>
-      <c r="F20" t="s">
-        <v>38</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -3422,10 +3398,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" t="s">
         <v>39</v>
-      </c>
-      <c r="F21" t="s">
-        <v>40</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -3451,10 +3427,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
         <v>41</v>
-      </c>
-      <c r="F22" t="s">
-        <v>42</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -3480,10 +3456,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s">
         <v>43</v>
-      </c>
-      <c r="F23" t="s">
-        <v>44</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -3509,10 +3485,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
         <v>45</v>
-      </c>
-      <c r="F24" t="s">
-        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -3538,10 +3514,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
         <v>47</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -3567,10 +3543,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
         <v>49</v>
-      </c>
-      <c r="F26" t="s">
-        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -3596,10 +3572,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
         <v>51</v>
-      </c>
-      <c r="F27" t="s">
-        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -3625,10 +3601,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
         <v>53</v>
-      </c>
-      <c r="F28" t="s">
-        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -3654,10 +3630,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
         <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -3683,10 +3659,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -3712,10 +3688,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
         <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -3741,10 +3717,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
         <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -3770,10 +3746,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -3799,10 +3775,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -3828,10 +3804,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>80</v>
@@ -3857,10 +3833,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -3889,7 +3865,7 @@
         <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G37" t="n">
         <v>2</v>
@@ -3915,10 +3891,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F38" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -3944,10 +3920,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G39" t="n">
         <v>7</v>
@@ -3973,10 +3949,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -4002,10 +3978,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G41" t="n">
         <v>4</v>
@@ -4031,10 +4007,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -4060,10 +4036,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -4089,10 +4065,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F44" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -4118,10 +4094,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -4147,10 +4123,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>52</v>
+      </c>
+      <c r="F46" t="s">
         <v>53</v>
-      </c>
-      <c r="F46" t="s">
-        <v>54</v>
       </c>
       <c r="G46" t="n">
         <v>3</v>
@@ -4176,10 +4152,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F47" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -4205,10 +4181,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F48" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -4234,10 +4210,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F49" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -4263,10 +4239,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F50" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G50" t="n">
         <v>4</v>
@@ -4292,10 +4268,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F51" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -4321,10 +4297,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F52" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -4350,10 +4326,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F53" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -4379,10 +4355,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F54" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -4408,10 +4384,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F55" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -4437,10 +4413,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F56" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -4466,10 +4442,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F57" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -4495,10 +4471,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F58" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G58" t="n">
         <v>3</v>
@@ -4524,10 +4500,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F59" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G59" t="n">
         <v>20</v>
@@ -4553,10 +4529,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F60" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -4582,10 +4558,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F61" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -4611,10 +4587,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F62" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -4640,10 +4616,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F63" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -4669,10 +4645,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F64" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -4698,10 +4674,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F65" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4727,10 +4703,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F66" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -4756,10 +4732,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F67" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G67" t="n">
         <v>4</v>
@@ -4785,10 +4761,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F68" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4814,10 +4790,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F69" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4843,10 +4819,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F70" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4872,10 +4848,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F71" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4901,10 +4877,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F72" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4930,10 +4906,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F73" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4959,10 +4935,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F74" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4988,10 +4964,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F75" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -5017,10 +4993,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F76" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G76" t="n">
         <v>6</v>
@@ -5046,10 +5022,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F77" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G77" t="n">
         <v>19</v>
@@ -5075,10 +5051,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F78" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -5104,10 +5080,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F79" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -5133,10 +5109,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F80" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G80" t="n">
         <v>5</v>
@@ -5162,10 +5138,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F81" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -5191,10 +5167,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F82" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G82" t="n">
         <v>3</v>
@@ -5220,10 +5196,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F83" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -5249,10 +5225,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F84" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -5278,10 +5254,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F85" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -5307,10 +5283,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F86" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5336,10 +5312,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F87" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5365,10 +5341,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F88" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5394,10 +5370,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F89" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5423,10 +5399,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F90" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5452,10 +5428,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F91" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5481,10 +5457,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F92" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5510,10 +5486,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F93" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5539,10 +5515,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F94" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5568,10 +5544,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F95" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5597,10 +5573,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F96" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5626,10 +5602,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F97" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5655,10 +5631,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F98" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5684,10 +5660,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F99" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5713,10 +5689,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F100" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5742,10 +5718,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F101" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -5771,10 +5747,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F102" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G102" t="n">
         <v>3</v>
@@ -5800,10 +5776,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F103" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5829,10 +5805,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F104" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -5858,10 +5834,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F105" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5887,10 +5863,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F106" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -5916,10 +5892,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F107" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G107" t="n">
         <v>4</v>
@@ -5945,10 +5921,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F108" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5974,10 +5950,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F109" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -6003,10 +5979,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F110" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -6032,10 +6008,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F111" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G111" t="n">
         <v>4</v>
@@ -6061,10 +6037,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F112" t="s">
-        <v>210</v>
+        <v>137</v>
       </c>
       <c r="G112" t="n">
         <v>7</v>
@@ -6090,10 +6066,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F113" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -6119,10 +6095,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F114" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -6148,10 +6124,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F115" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -6177,10 +6153,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F116" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6206,10 +6182,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F117" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -6235,10 +6211,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F118" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -6264,10 +6240,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F119" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6293,10 +6269,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F120" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -6322,10 +6298,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F121" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G121" t="n">
         <v>6</v>
@@ -6351,10 +6327,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F122" t="s">
-        <v>230</v>
+        <v>6</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6380,10 +6356,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F123" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6409,10 +6385,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F124" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6438,10 +6414,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F125" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6467,10 +6443,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F126" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6496,10 +6472,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F127" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -6525,10 +6501,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F128" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6554,10 +6530,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F129" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6583,10 +6559,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="F130" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6612,10 +6588,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F131" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6641,10 +6617,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F132" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6670,10 +6646,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F133" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6699,10 +6675,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F134" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6728,10 +6704,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F135" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6757,10 +6733,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F136" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6786,10 +6762,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F137" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6815,10 +6791,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F138" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6844,10 +6820,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F139" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6873,10 +6849,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F140" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6902,10 +6878,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F141" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6931,10 +6907,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F142" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6960,10 +6936,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F143" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6989,10 +6965,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F144" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -7018,10 +6994,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F145" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7047,10 +7023,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F146" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7076,10 +7052,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F147" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7105,10 +7081,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F148" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7134,10 +7110,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F149" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -7163,10 +7139,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="F150" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7192,10 +7168,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F151" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -7221,10 +7197,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F152" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7250,10 +7226,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F153" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7279,10 +7255,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F154" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7308,10 +7284,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F155" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7337,10 +7313,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F156" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7366,10 +7342,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F157" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -7395,10 +7371,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F158" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7424,10 +7400,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F159" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7453,10 +7429,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F160" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -7482,10 +7458,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F161" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7511,10 +7487,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F162" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7540,10 +7516,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F163" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -7569,10 +7545,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F164" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7598,10 +7574,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F165" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -7627,10 +7603,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F166" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7656,10 +7632,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F167" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7685,10 +7661,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F168" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7714,10 +7690,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F169" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7743,10 +7719,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F170" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7772,10 +7748,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F171" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7801,10 +7777,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F172" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7830,10 +7806,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F173" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7859,10 +7835,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F174" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G174" t="n">
         <v>2</v>
@@ -7888,10 +7864,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F175" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7917,10 +7893,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F176" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7946,10 +7922,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F177" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7975,10 +7951,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F178" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -8004,10 +7980,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F179" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8033,10 +8009,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F180" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8062,10 +8038,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F181" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8091,10 +8067,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F182" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8120,10 +8096,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F183" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8149,10 +8125,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F184" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8178,10 +8154,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F185" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8207,10 +8183,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F186" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8236,10 +8212,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F187" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8265,10 +8241,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F188" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8294,10 +8270,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F189" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8323,10 +8299,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F190" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8352,10 +8328,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F191" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8381,10 +8357,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F192" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8410,10 +8386,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F193" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8439,10 +8415,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F194" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8468,10 +8444,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="F195" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8497,10 +8473,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F196" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8526,10 +8502,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F197" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G197" t="n">
         <v>2</v>
@@ -8555,10 +8531,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F198" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8584,10 +8560,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F199" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8613,10 +8589,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F200" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8642,10 +8618,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F201" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8671,10 +8647,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F202" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8700,10 +8676,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F203" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8729,10 +8705,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F204" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8758,10 +8734,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F205" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8787,10 +8763,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F206" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8816,10 +8792,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F207" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8845,10 +8821,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F208" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8874,10 +8850,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F209" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8903,10 +8879,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F210" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8932,10 +8908,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F211" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8961,10 +8937,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F212" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8990,10 +8966,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F213" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9019,10 +8995,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F214" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9048,10 +9024,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F215" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9077,10 +9053,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F216" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="G216" t="n">
         <v>2</v>
@@ -9106,10 +9082,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F217" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9135,10 +9111,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F218" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9164,10 +9140,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F219" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9193,10 +9169,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="F220" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9222,10 +9198,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F221" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9251,10 +9227,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F222" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9280,10 +9256,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F223" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9309,10 +9285,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F224" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9338,10 +9314,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F225" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9367,10 +9343,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F226" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9396,10 +9372,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F227" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9425,10 +9401,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F228" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9454,10 +9430,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F229" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9483,10 +9459,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F230" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9512,10 +9488,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="F231" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9541,10 +9517,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F232" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9570,10 +9546,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F233" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9599,10 +9575,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F234" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9628,10 +9604,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F235" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9657,10 +9633,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F236" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9686,10 +9662,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F237" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9715,10 +9691,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="F238" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9744,10 +9720,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F239" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9773,10 +9749,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F240" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G240" t="n">
         <v>2</v>
@@ -9802,10 +9778,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F241" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9831,10 +9807,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F242" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9860,10 +9836,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F243" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9889,10 +9865,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F244" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9918,10 +9894,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F245" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9947,10 +9923,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F246" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9976,10 +9952,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F247" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10005,10 +9981,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F248" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10034,10 +10010,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F249" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10063,10 +10039,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F250" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10092,10 +10068,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F251" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10121,10 +10097,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="F252" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10150,10 +10126,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F253" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10179,10 +10155,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F254" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10208,10 +10184,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F255" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10237,10 +10213,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F256" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10266,10 +10242,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F257" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10295,10 +10271,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F258" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10324,10 +10300,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F259" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10353,10 +10329,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F260" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10382,10 +10358,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F261" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10411,10 +10387,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F262" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10440,10 +10416,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F263" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10469,10 +10445,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F264" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10498,10 +10474,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F265" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10527,10 +10503,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F266" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10556,10 +10532,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F267" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10585,10 +10561,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F268" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10614,10 +10590,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F269" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10643,10 +10619,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F270" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10672,10 +10648,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="F271" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10701,10 +10677,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F272" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10730,10 +10706,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="F273" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10759,10 +10735,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F274" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10788,10 +10764,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="F275" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10817,10 +10793,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F276" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10846,10 +10822,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="F277" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10875,10 +10851,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="F278" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10904,10 +10880,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="F279" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10933,10 +10909,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="F280" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10962,10 +10938,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="F281" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10991,10 +10967,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="F282" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11020,10 +10996,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="F283" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11049,10 +11025,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="F284" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11078,10 +11054,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="F285" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11107,10 +11083,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F286" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11136,10 +11112,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="F287" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11165,10 +11141,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="F288" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11194,10 +11170,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F289" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11223,10 +11199,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="F290" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11252,10 +11228,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="F291" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11281,10 +11257,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F292" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11310,10 +11286,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="F293" t="s">
-        <v>568</v>
+        <v>189</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11339,10 +11315,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="F294" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11368,10 +11344,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="F295" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11397,10 +11373,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="F296" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11426,10 +11402,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="F297" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="G297" t="n">
         <v>2</v>
@@ -11455,10 +11431,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="F298" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11484,10 +11460,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="F299" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11513,10 +11489,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="F300" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11542,10 +11518,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="F301" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="G301" t="n">
         <v>2</v>
@@ -11571,10 +11547,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="F302" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11600,10 +11576,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="F303" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11629,10 +11605,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="F304" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11658,10 +11634,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="F305" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11687,10 +11663,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="F306" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11716,10 +11692,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="F307" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11745,10 +11721,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="F308" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11774,10 +11750,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="F309" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11803,10 +11779,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="F310" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11832,10 +11808,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="F311" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11861,10 +11837,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="F312" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11890,10 +11866,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="F313" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11919,10 +11895,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="F314" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11948,10 +11924,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="F315" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11977,10 +11953,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="F316" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12006,10 +11982,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="F317" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12035,10 +12011,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="F318" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12064,10 +12040,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="F319" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12093,10 +12069,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="F320" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12122,10 +12098,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="F321" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12151,10 +12127,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="F322" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12180,10 +12156,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="F323" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12209,10 +12185,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="F324" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12238,10 +12214,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="F325" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12267,10 +12243,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="F326" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12296,10 +12272,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="F327" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12325,10 +12301,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="F328" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12354,10 +12330,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="F329" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12383,10 +12359,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="F330" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12412,10 +12388,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="F331" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="G331" t="n">
         <v>4</v>
@@ -12441,10 +12417,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="F332" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12470,10 +12446,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="F333" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12499,10 +12475,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="F334" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12528,10 +12504,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="F335" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12557,10 +12533,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
+        <v>30</v>
+      </c>
+      <c r="F336" t="s">
         <v>31</v>
-      </c>
-      <c r="F336" t="s">
-        <v>32</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12586,10 +12562,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="F337" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12615,10 +12591,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="F338" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12644,10 +12620,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="F339" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12673,10 +12649,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="F340" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12702,10 +12678,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="F341" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12731,10 +12707,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="F342" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12760,10 +12736,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="F343" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12789,10 +12765,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="F344" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12818,10 +12794,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="F345" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12847,10 +12823,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="F346" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12876,10 +12852,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="F347" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12905,10 +12881,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="F348" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12934,10 +12910,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F349" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12963,10 +12939,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="F350" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12992,10 +12968,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="F351" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13021,10 +12997,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="F352" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13050,10 +13026,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="F353" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13079,10 +13055,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="F354" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13108,10 +13084,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="F355" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13137,10 +13113,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="F356" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13166,10 +13142,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="F357" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13195,10 +13171,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="F358" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13224,10 +13200,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F359" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13253,10 +13229,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="F360" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13282,10 +13258,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="F361" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13311,10 +13287,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="F362" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13340,10 +13316,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="F363" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13369,10 +13345,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="F364" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13398,10 +13374,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="F365" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13427,10 +13403,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="F366" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13456,10 +13432,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="F367" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="G367" t="n">
         <v>4</v>
@@ -13485,10 +13461,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="F368" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13514,10 +13490,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="F369" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13543,10 +13519,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="F370" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13572,10 +13548,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F371" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13601,10 +13577,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="F372" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13630,10 +13606,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="F373" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13659,10 +13635,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="F374" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="G374" t="n">
         <v>2</v>
@@ -13688,10 +13664,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="F375" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13717,10 +13693,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="F376" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13746,10 +13722,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="F377" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13775,10 +13751,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="F378" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13804,10 +13780,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="F379" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13833,10 +13809,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="F380" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -13862,10 +13838,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="F381" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13891,10 +13867,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="F382" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -13920,10 +13896,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="F383" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -13949,10 +13925,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="F384" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -13978,10 +13954,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="F385" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14007,10 +13983,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="F386" t="s">
-        <v>750</v>
+        <v>311</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14036,10 +14012,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="F387" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="G387" t="n">
         <v>2</v>
@@ -14065,10 +14041,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="F388" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14094,10 +14070,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="F389" t="s">
-        <v>756</v>
+        <v>375</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14123,10 +14099,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="F390" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14152,10 +14128,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F391" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14181,10 +14157,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F392" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14210,10 +14186,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="F393" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14239,10 +14215,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="F394" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14268,10 +14244,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="F395" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14297,10 +14273,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F396" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="G396" t="n">
         <v>3</v>
@@ -14326,10 +14302,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="F397" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14355,10 +14331,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="F398" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14384,10 +14360,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F399" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14413,10 +14389,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F400" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14442,10 +14418,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="F401" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14471,10 +14447,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="F402" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14500,10 +14476,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="F403" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14529,10 +14505,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="F404" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14558,10 +14534,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="F405" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14587,10 +14563,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="F406" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14616,10 +14592,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="F407" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="G407" t="n">
         <v>10</v>
@@ -14645,10 +14621,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="F408" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -14674,10 +14650,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="F409" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="G409" t="n">
         <v>2</v>
@@ -14703,10 +14679,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="F410" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -14732,10 +14708,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F411" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -14761,10 +14737,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="F412" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -14790,10 +14766,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="F413" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -14819,10 +14795,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="F414" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -14848,10 +14824,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="F415" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -14877,10 +14853,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="F416" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -14906,10 +14882,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="F417" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -14935,10 +14911,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="F418" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -14964,10 +14940,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="F419" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -14993,10 +14969,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="F420" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15022,10 +14998,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="F421" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15051,10 +15027,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="F422" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15080,10 +15056,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="F423" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15109,10 +15085,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="F424" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15138,10 +15114,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="F425" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15167,10 +15143,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="F426" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="G426" t="n">
         <v>2</v>
@@ -15196,10 +15172,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="F427" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>

--- a/xlsx/阿富汗战争 (1979年)_intext.xlsx
+++ b/xlsx/阿富汗战争 (1979年)_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="822">
   <si>
     <t>阿富汗战争 (1979年)</t>
   </si>
@@ -29,7 +29,7 @@
     <t>阿富汗战争 (2001年)</t>
   </si>
   <si>
-    <t>政策_政策_美國_阿富汗战争 (1979年)</t>
+    <t>体育运动_体育运动_1980年夏季奥林匹克运动会_阿富汗战争 (1979年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%B0</t>
@@ -1440,6 +1440,12 @@
   </si>
   <si>
     <t>黎巴嫩內戰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%B9%E9%9D%A9%E5%BC%80%E6%94%BE</t>
+  </si>
+  <si>
+    <t>改革开放</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E8%B6%8A%E6%88%B0%E7%88%AD</t>
@@ -2823,7 +2829,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I427"/>
+  <dimension ref="A1:I428"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10701,10 +10707,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>305</v>
+        <v>527</v>
       </c>
       <c r="F272" t="s">
-        <v>306</v>
+        <v>528</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10730,10 +10736,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>527</v>
+        <v>305</v>
       </c>
       <c r="F273" t="s">
-        <v>528</v>
+        <v>306</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -11432,7 +11438,7 @@
         <v>576</v>
       </c>
       <c r="G297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H297" t="s">
         <v>4</v>
@@ -11461,7 +11467,7 @@
         <v>578</v>
       </c>
       <c r="G298" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H298" t="s">
         <v>4</v>
@@ -11548,7 +11554,7 @@
         <v>584</v>
       </c>
       <c r="G301" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H301" t="s">
         <v>4</v>
@@ -11577,7 +11583,7 @@
         <v>586</v>
       </c>
       <c r="G302" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H302" t="s">
         <v>4</v>
@@ -12418,7 +12424,7 @@
         <v>644</v>
       </c>
       <c r="G331" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H331" t="s">
         <v>4</v>
@@ -12447,7 +12453,7 @@
         <v>646</v>
       </c>
       <c r="G332" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H332" t="s">
         <v>4</v>
@@ -12557,10 +12563,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>31</v>
+        <v>653</v>
       </c>
       <c r="F336" t="s">
-        <v>32</v>
+        <v>654</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12586,10 +12592,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>653</v>
+        <v>31</v>
       </c>
       <c r="F337" t="s">
-        <v>654</v>
+        <v>32</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12934,10 +12940,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>241</v>
+        <v>677</v>
       </c>
       <c r="F349" t="s">
-        <v>242</v>
+        <v>678</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12963,10 +12969,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>677</v>
+        <v>241</v>
       </c>
       <c r="F350" t="s">
-        <v>678</v>
+        <v>242</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13462,7 +13468,7 @@
         <v>712</v>
       </c>
       <c r="G367" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H367" t="s">
         <v>4</v>
@@ -13491,7 +13497,7 @@
         <v>714</v>
       </c>
       <c r="G368" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H368" t="s">
         <v>4</v>
@@ -13665,7 +13671,7 @@
         <v>726</v>
       </c>
       <c r="G374" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H374" t="s">
         <v>4</v>
@@ -13694,7 +13700,7 @@
         <v>728</v>
       </c>
       <c r="G375" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H375" t="s">
         <v>4</v>
@@ -14042,7 +14048,7 @@
         <v>752</v>
       </c>
       <c r="G387" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H387" t="s">
         <v>4</v>
@@ -14071,7 +14077,7 @@
         <v>754</v>
       </c>
       <c r="G388" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H388" t="s">
         <v>4</v>
@@ -14152,10 +14158,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>401</v>
+        <v>759</v>
       </c>
       <c r="F391" t="s">
-        <v>402</v>
+        <v>760</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14181,10 +14187,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>469</v>
+        <v>401</v>
       </c>
       <c r="F392" t="s">
-        <v>470</v>
+        <v>402</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14210,10 +14216,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>759</v>
+        <v>469</v>
       </c>
       <c r="F393" t="s">
-        <v>760</v>
+        <v>470</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14297,13 +14303,13 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>417</v>
+        <v>765</v>
       </c>
       <c r="F396" t="s">
-        <v>418</v>
+        <v>766</v>
       </c>
       <c r="G396" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H396" t="s">
         <v>4</v>
@@ -14326,13 +14332,13 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>765</v>
+        <v>417</v>
       </c>
       <c r="F397" t="s">
-        <v>766</v>
+        <v>418</v>
       </c>
       <c r="G397" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H397" t="s">
         <v>4</v>
@@ -14384,10 +14390,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>479</v>
+        <v>769</v>
       </c>
       <c r="F399" t="s">
-        <v>480</v>
+        <v>770</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14413,10 +14419,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="F400" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14442,10 +14448,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>769</v>
+        <v>479</v>
       </c>
       <c r="F401" t="s">
-        <v>770</v>
+        <v>480</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14622,7 +14628,7 @@
         <v>782</v>
       </c>
       <c r="G407" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H407" t="s">
         <v>4</v>
@@ -14651,7 +14657,7 @@
         <v>784</v>
       </c>
       <c r="G408" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H408" t="s">
         <v>4</v>
@@ -14680,7 +14686,7 @@
         <v>786</v>
       </c>
       <c r="G409" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H409" t="s">
         <v>4</v>
@@ -14732,10 +14738,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>391</v>
+        <v>789</v>
       </c>
       <c r="F411" t="s">
-        <v>392</v>
+        <v>790</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -14761,10 +14767,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>789</v>
+        <v>391</v>
       </c>
       <c r="F412" t="s">
-        <v>790</v>
+        <v>392</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15173,7 +15179,7 @@
         <v>818</v>
       </c>
       <c r="G426" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H426" t="s">
         <v>4</v>
@@ -15196,18 +15202,47 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="F427" t="s">
+        <v>820</v>
+      </c>
+      <c r="G427" t="n">
+        <v>2</v>
+      </c>
+      <c r="H427" t="s">
+        <v>4</v>
+      </c>
+      <c r="I427" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9">
+      <c r="A428" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="B428" t="s">
+        <v>0</v>
+      </c>
+      <c r="C428" t="s">
+        <v>1</v>
+      </c>
+      <c r="D428" t="n">
+        <v>427</v>
+      </c>
+      <c r="E428" t="s">
         <v>819</v>
       </c>
-      <c r="G427" t="n">
-        <v>1</v>
-      </c>
-      <c r="H427" t="s">
-        <v>4</v>
-      </c>
-      <c r="I427" t="n">
+      <c r="F428" t="s">
+        <v>821</v>
+      </c>
+      <c r="G428" t="n">
+        <v>1</v>
+      </c>
+      <c r="H428" t="s">
+        <v>4</v>
+      </c>
+      <c r="I428" t="n">
         <v>3</v>
       </c>
     </row>
